--- a/biology/Médecine/Jean-Michel_Foidart/Jean-Michel_Foidart.xlsx
+++ b/biology/Médecine/Jean-Michel_Foidart/Jean-Michel_Foidart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Michel, baron[1] Foidart, né le 4 octobre 1949 à Liège, est un médecin et chercheur belge.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel, baron Foidart, né le 4 octobre 1949 à Liège, est un médecin et chercheur belge.
 Il est cofondateur de Mithra Pharmaceuticals, crée en 1999, avec François Fornieri. Au sein de l'Université de Liège, il est professeur honoraire et codirecteur du Laboratoire des tumeurs et du développement biologique (LBTD). Il est également secrétaire perpétuel de l'Académie royale de médecine de Belgique depuis le 1er janvier 2017.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,14 +552,16 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix quinquennal du FNRS en 2005
 Docteur honoris causa de l'Université Pierre-et-Marie-Curie en 2010
 Docteur honoris causa de l'Université Toulouse-III-Paul-Sabatier en 2012
 Prix Boulogne-Lemaire du Wallon de l'année en 2011 par l'Institut Jules Destrée
  Officier du Mérite wallon (O.M.W.)
-Concession de noblesse héréditaire et du titre personnel de baron par le roi Philippe en 2018[1].</t>
+Concession de noblesse héréditaire et du titre personnel de baron par le roi Philippe en 2018.</t>
         </is>
       </c>
     </row>
